--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value267.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value267.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6290499799661665</v>
+        <v>1.655945897102356</v>
       </c>
       <c r="B1">
-        <v>0.865397047157943</v>
+        <v>2.02492618560791</v>
       </c>
       <c r="C1">
-        <v>1.491628114926919</v>
+        <v>2.212754964828491</v>
       </c>
       <c r="D1">
-        <v>3.28975273605657</v>
+        <v>2.513699054718018</v>
       </c>
       <c r="E1">
-        <v>2.480682960723373</v>
+        <v>3.33297061920166</v>
       </c>
     </row>
   </sheetData>
